--- a/2020/Eid Selami offer.xlsx
+++ b/2020/Eid Selami offer.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
